--- a/WorkoutFiles/WorkoutTracker.xlsx
+++ b/WorkoutFiles/WorkoutTracker.xlsx
@@ -56,7 +56,7 @@
     <t>Cable Hip Thrust</t>
   </si>
   <si>
-    <t>Cable Hip Abbduction</t>
+    <t>Cable Hip Abduction</t>
   </si>
   <si>
     <t>2020-01-17</t>

--- a/WorkoutFiles/WorkoutTracker.xlsx
+++ b/WorkoutFiles/WorkoutTracker.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -843,8 +843,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="general" vertical="bottom" indent="0" textRotation="0" wrapText="false"/>
@@ -936,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -946,6 +946,10 @@
     <col min="2" max="2" width="27.6640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="5.4609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="7.68359375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.3046875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="19.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="5.4609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="7.68359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -962,6 +966,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="4"/>
+      <c r="F1" t="s" s="4">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="4"/>
     </row>
     <row r="2">
       <c r="A2" t="s" s="15">
@@ -977,6 +994,19 @@
         <v>0.0</v>
       </c>
       <c r="E2" s="4"/>
+      <c r="F2" t="s" s="15">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="H2" t="n" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="I2" t="n" s="18">
+        <v>65.0</v>
+      </c>
+      <c r="J2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="16"/>
@@ -987,6 +1017,13 @@
       <c r="D3" t="n" s="19">
         <v>0.0</v>
       </c>
+      <c r="F3" s="16"/>
+      <c r="H3" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I3" t="n" s="22">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="16"/>
@@ -999,6 +1036,13 @@
       <c r="D4" t="n" s="20">
         <v>225.0</v>
       </c>
+      <c r="F4" s="16"/>
+      <c r="H4" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I4" t="n" s="22">
+        <v>155.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="17"/>
@@ -1009,9 +1053,23 @@
       <c r="D5" t="n" s="21">
         <v>175.0</v>
       </c>
+      <c r="F5" s="16"/>
+      <c r="H5" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I5" t="n" s="22">
+        <v>115.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4"/>
+      <c r="F6" s="16"/>
+      <c r="H6" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I6" t="n" s="22">
+        <v>170.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="15">
@@ -1027,6 +1085,13 @@
         <v>0.0</v>
       </c>
       <c r="E7" s="4"/>
+      <c r="F7" s="16"/>
+      <c r="H7" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I7" t="n" s="22">
+        <v>175.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="16"/>
@@ -1037,6 +1102,14 @@
       <c r="D8" t="n" s="19">
         <v>0.0</v>
       </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="5"/>
+      <c r="H8" t="n" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I8" t="n" s="19">
+        <v>185.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="17"/>
@@ -1049,9 +1122,26 @@
       <c r="D9" t="n" s="21">
         <v>135.0</v>
       </c>
+      <c r="F9" s="16"/>
+      <c r="G9" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="H9" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="I9" t="n" s="20">
+        <v>175.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4"/>
+      <c r="F10" s="16"/>
+      <c r="H10" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="I10" t="n" s="20">
+        <v>175.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="15">
@@ -1067,6 +1157,14 @@
         <v>0.0</v>
       </c>
       <c r="E11" s="4"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="5"/>
+      <c r="H11" t="n" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="I11" t="n" s="23">
+        <v>175.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="16"/>
@@ -1077,6 +1175,16 @@
       <c r="D12" t="n" s="19">
         <v>0.0</v>
       </c>
+      <c r="F12" s="16"/>
+      <c r="G12" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H12" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I12" t="n" s="22">
+        <v>120.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="17"/>
@@ -1089,9 +1197,24 @@
       <c r="D13" t="n" s="21">
         <v>200.0</v>
       </c>
+      <c r="F13" s="16"/>
+      <c r="H13" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I13" t="n" s="22">
+        <v>120.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="5"/>
+      <c r="H14" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="I14" t="n" s="19">
+        <v>115.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="15">
@@ -1107,6 +1230,16 @@
         <v>0.0</v>
       </c>
       <c r="E15" s="4"/>
+      <c r="F15" s="16"/>
+      <c r="G15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H15" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I15" t="n" s="20">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="16"/>
@@ -1117,6 +1250,13 @@
       <c r="D16" t="n" s="19">
         <v>0.0</v>
       </c>
+      <c r="F16" s="16"/>
+      <c r="H16" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I16" t="n" s="20">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="16"/>
@@ -1129,6 +1269,14 @@
       <c r="D17" t="n" s="20">
         <v>185.0</v>
       </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="8"/>
+      <c r="H17" t="n" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="I17" t="n" s="21">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="16"/>
@@ -1138,6 +1286,7 @@
       <c r="D18" t="n" s="20">
         <v>180.0</v>
       </c>
+      <c r="F18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="17"/>
@@ -1148,9 +1297,29 @@
       <c r="D19" t="n" s="21">
         <v>175.0</v>
       </c>
+      <c r="F19" t="s" s="15">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="H19" t="n" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="I19" t="n" s="18">
+        <v>85.0</v>
+      </c>
+      <c r="J19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" s="4"/>
+      <c r="F20" s="16"/>
+      <c r="H20" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I20" t="n" s="22">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="15">
@@ -1166,6 +1335,13 @@
         <v>65.0</v>
       </c>
       <c r="E21" s="4"/>
+      <c r="F21" s="16"/>
+      <c r="H21" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I21" t="n" s="22">
+        <v>175.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="16"/>
@@ -1175,6 +1351,14 @@
       <c r="D22" t="n" s="22">
         <v>115.0</v>
       </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="5"/>
+      <c r="H22" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="I22" t="n" s="19">
+        <v>115.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="16"/>
@@ -1184,6 +1368,16 @@
       <c r="D23" t="n" s="22">
         <v>155.0</v>
       </c>
+      <c r="F23" s="16"/>
+      <c r="G23" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="H23" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I23" t="n" s="20">
+        <v>185.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="16"/>
@@ -1193,6 +1387,13 @@
       <c r="D24" t="n" s="22">
         <v>115.0</v>
       </c>
+      <c r="F24" s="16"/>
+      <c r="H24" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I24" t="n" s="20">
+        <v>185.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="16"/>
@@ -1202,6 +1403,14 @@
       <c r="D25" t="n" s="22">
         <v>165.0</v>
       </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="5"/>
+      <c r="H25" t="n" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="I25" t="n" s="23">
+        <v>185.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="16"/>
@@ -1210,6 +1419,16 @@
       </c>
       <c r="D26" t="n" s="22">
         <v>165.0</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H26" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I26" t="n" s="22">
+        <v>130.0</v>
       </c>
     </row>
     <row r="27">
@@ -1221,6 +1440,13 @@
       <c r="D27" t="n" s="19">
         <v>165.0</v>
       </c>
+      <c r="F27" s="16"/>
+      <c r="H27" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I27" t="n" s="22">
+        <v>130.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="16"/>
@@ -1233,6 +1459,14 @@
       <c r="D28" t="n" s="20">
         <v>165.0</v>
       </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="5"/>
+      <c r="H28" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="I28" t="n" s="19">
+        <v>130.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="16"/>
@@ -1241,6 +1475,16 @@
       </c>
       <c r="D29" t="n" s="20">
         <v>165.0</v>
+      </c>
+      <c r="F29" s="16"/>
+      <c r="G29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H29" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I29" t="n" s="20">
+        <v>30.0</v>
       </c>
     </row>
     <row r="30">
@@ -1252,6 +1496,13 @@
       <c r="D30" t="n" s="23">
         <v>165.0</v>
       </c>
+      <c r="F30" s="16"/>
+      <c r="H30" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I30" t="n" s="20">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="16"/>
@@ -1264,6 +1515,14 @@
       <c r="D31" t="n" s="22">
         <v>125.0</v>
       </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="8"/>
+      <c r="H31" t="n" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="I31" t="n" s="21">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="16"/>
@@ -1273,6 +1532,7 @@
       <c r="D32" t="n" s="22">
         <v>125.0</v>
       </c>
+      <c r="F32" s="4"/>
     </row>
     <row r="33">
       <c r="A33" s="16"/>
@@ -1283,6 +1543,19 @@
       <c r="D33" t="n" s="19">
         <v>125.0</v>
       </c>
+      <c r="F33" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="H33" t="n" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="I33" t="n" s="18">
+        <v>100.0</v>
+      </c>
+      <c r="J33" s="4"/>
     </row>
     <row r="34">
       <c r="A34" s="16"/>
@@ -1295,6 +1568,13 @@
       <c r="D34" t="n" s="20">
         <v>20.0</v>
       </c>
+      <c r="F34" s="16"/>
+      <c r="H34" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I34" t="n" s="22">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="16"/>
@@ -1303,6 +1583,13 @@
       </c>
       <c r="D35" t="n" s="20">
         <v>20.0</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="H35" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I35" t="n" s="22">
+        <v>155.0</v>
       </c>
     </row>
     <row r="36">
@@ -1314,490 +1601,148 @@
       <c r="D36" t="n" s="21">
         <v>20.0</v>
       </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="5"/>
+      <c r="H36" t="n" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I36" t="n" s="19">
+        <v>200.0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4"/>
+      <c r="F37" s="16"/>
+      <c r="G37" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="H37" t="n" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I37" t="n" s="20">
+        <v>200.0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="15">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="C38" t="n" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="D38" t="n" s="18">
-        <v>65.0</v>
-      </c>
-      <c r="E38" s="4"/>
+      <c r="F38" s="16"/>
+      <c r="H38" t="n" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="I38" t="n" s="20">
+        <v>200.0</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="16"/>
-      <c r="C39" t="n" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D39" t="n" s="22">
-        <v>125.0</v>
+      <c r="F39" s="16"/>
+      <c r="G39" s="5"/>
+      <c r="H39" t="n" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="I39" t="n" s="23">
+        <v>200.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="16"/>
-      <c r="C40" t="n" s="1">
+      <c r="F40" s="16"/>
+      <c r="G40" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H40" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I40" t="n" s="22">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" s="16"/>
+      <c r="H41" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I41" t="n" s="22">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" s="16"/>
+      <c r="G42" s="5"/>
+      <c r="H42" t="n" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="I42" t="n" s="19">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" s="16"/>
+      <c r="G43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H43" t="n" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I43" t="n" s="20">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" s="16"/>
+      <c r="H44" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="I44" t="n" s="20">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" s="17"/>
+      <c r="G45" s="8"/>
+      <c r="H45" t="n" s="9">
         <v>5.0</v>
       </c>
-      <c r="D40" t="n" s="22">
-        <v>155.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="16"/>
-      <c r="C41" t="n" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D41" t="n" s="22">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="16"/>
-      <c r="C42" t="n" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D42" t="n" s="22">
-        <v>170.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="16"/>
-      <c r="C43" t="n" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D43" t="n" s="22">
-        <v>175.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="16"/>
-      <c r="B44" s="5"/>
-      <c r="C44" t="n" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D44" t="n" s="19">
-        <v>185.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="16"/>
-      <c r="B45" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="C45" t="n" s="2">
+      <c r="I45" t="n" s="21">
         <v>15.0</v>
       </c>
-      <c r="D45" t="n" s="20">
-        <v>175.0</v>
-      </c>
     </row>
     <row r="46">
-      <c r="A46" s="16"/>
-      <c r="C46" t="n" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="D46" t="n" s="20">
-        <v>175.0</v>
-      </c>
+      <c r="F46" s="4"/>
     </row>
     <row r="47">
-      <c r="A47" s="16"/>
-      <c r="B47" s="5"/>
-      <c r="C47" t="n" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="D47" t="n" s="23">
-        <v>175.0</v>
-      </c>
+      <c r="F47" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="H47" t="n" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="I47" t="n" s="18">
+        <v>50.0</v>
+      </c>
+      <c r="J47" s="4"/>
     </row>
     <row r="48">
-      <c r="A48" s="16"/>
-      <c r="B48" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C48" t="n" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D48" t="n" s="22">
-        <v>120.0</v>
+      <c r="F48" s="16"/>
+      <c r="H48" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I48" t="n" s="22">
+        <v>50.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="16"/>
-      <c r="C49" t="n" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D49" t="n" s="22">
-        <v>120.0</v>
+      <c r="F49" s="17"/>
+      <c r="G49" s="8"/>
+      <c r="H49" t="n" s="24">
+        <v>10.0</v>
+      </c>
+      <c r="I49" t="n" s="25">
+        <v>50.0</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="16"/>
-      <c r="B50" s="5"/>
-      <c r="C50" t="n" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="D50" t="n" s="19">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="16"/>
-      <c r="B51" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="C51" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D51" t="n" s="20">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="16"/>
-      <c r="C52" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D52" t="n" s="20">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="17"/>
-      <c r="B53" s="8"/>
-      <c r="C53" t="n" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="D53" t="n" s="21">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="s" s="15">
-        <v>16</v>
-      </c>
-      <c r="B55" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="C55" t="n" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="D55" t="n" s="18">
-        <v>85.0</v>
-      </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="16"/>
-      <c r="C56" t="n" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D56" t="n" s="22">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="16"/>
-      <c r="C57" t="n" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D57" t="n" s="22">
-        <v>175.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="16"/>
-      <c r="B58" s="5"/>
-      <c r="C58" t="n" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="D58" t="n" s="19">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="16"/>
-      <c r="B59" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="C59" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D59" t="n" s="20">
-        <v>185.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="16"/>
-      <c r="C60" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D60" t="n" s="20">
-        <v>185.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="16"/>
-      <c r="B61" s="5"/>
-      <c r="C61" t="n" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="D61" t="n" s="23">
-        <v>185.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="16"/>
-      <c r="B62" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C62" t="n" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D62" t="n" s="22">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="16"/>
-      <c r="C63" t="n" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D63" t="n" s="22">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="16"/>
-      <c r="B64" s="5"/>
-      <c r="C64" t="n" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="D64" t="n" s="19">
-        <v>130.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="16"/>
-      <c r="B65" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="C65" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D65" t="n" s="20">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="16"/>
-      <c r="C66" t="n" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="D66" t="n" s="20">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="17"/>
-      <c r="B67" s="8"/>
-      <c r="C67" t="n" s="9">
-        <v>10.0</v>
-      </c>
-      <c r="D67" t="n" s="21">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="4"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="15">
-        <v>17</v>
-      </c>
-      <c r="B69" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="C69" t="n" s="11">
-        <v>5.0</v>
-      </c>
-      <c r="D69" t="n" s="18">
-        <v>100.0</v>
-      </c>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="16"/>
-      <c r="C70" t="n" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D70" t="n" s="22">
-        <v>125.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="16"/>
-      <c r="C71" t="n" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="D71" t="n" s="22">
-        <v>155.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="16"/>
-      <c r="B72" s="5"/>
-      <c r="C72" t="n" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D72" t="n" s="19">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="16"/>
-      <c r="B73" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="C73" t="n" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="D73" t="n" s="20">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="16"/>
-      <c r="C74" t="n" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="D74" t="n" s="20">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="16"/>
-      <c r="B75" s="5"/>
-      <c r="C75" t="n" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="D75" t="n" s="23">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="16"/>
-      <c r="B76" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="C76" t="n" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D76" t="n" s="22">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="16"/>
-      <c r="C77" t="n" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D77" t="n" s="22">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="16"/>
-      <c r="B78" s="5"/>
-      <c r="C78" t="n" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="D78" t="n" s="19">
-        <v>115.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="16"/>
-      <c r="B79" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="C79" t="n" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="D79" t="n" s="20">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="16"/>
-      <c r="C80" t="n" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="D80" t="n" s="20">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="17"/>
-      <c r="B81" s="8"/>
-      <c r="C81" t="n" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="D81" t="n" s="21">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="4"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="B83" t="s" s="11">
-        <v>19</v>
-      </c>
-      <c r="C83" t="n" s="11">
-        <v>10.0</v>
-      </c>
-      <c r="D83" t="n" s="18">
-        <v>50.0</v>
-      </c>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="16"/>
-      <c r="C84" t="n" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="D84" t="n" s="22">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="17"/>
-      <c r="B85" s="8"/>
-      <c r="C85" t="n" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="D85" t="n" s="25">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="4"/>
+      <c r="F50" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -1826,31 +1771,31 @@
     <mergeCell ref="A21:A36"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="E21:E37"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="A38:A53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="E38:E54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A55:A67"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="E55:E68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="A69:A81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="E69:E82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="E83:E86"/>
+    <mergeCell ref="G2:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="F2:F17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J2:J18"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F19:F31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="J19:J32"/>
+    <mergeCell ref="G33:G36"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="F33:F45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="J33:J46"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="J47:J50"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/WorkoutFiles/WorkoutTracker.xlsx
+++ b/WorkoutFiles/WorkoutTracker.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -26,6 +26,9 @@
     <t>Weight</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>2020-01-09</t>
   </si>
   <si>
@@ -72,6 +75,18 @@
   </si>
   <si>
     <t>Overhead Press</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>2020-02-18</t>
+  </si>
+  <si>
+    <t>2020-02-19</t>
+  </si>
+  <si>
+    <t>2020-02-28</t>
   </si>
 </sst>
 </file>
@@ -936,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -950,6 +965,10 @@
     <col min="7" max="7" width="19.2734375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="5.4609375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="7.68359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.3046875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="19.2734375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="5.4609375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="7.68359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -965,7 +984,9 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" t="s" s="4">
+        <v>4</v>
+      </c>
       <c r="F1" t="s" s="4">
         <v>0</v>
       </c>
@@ -978,14 +999,31 @@
       <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s" s="4">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s" s="4">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n" s="11">
         <v>9.0</v>
@@ -993,12 +1031,11 @@
       <c r="D2" t="n" s="18">
         <v>0.0</v>
       </c>
-      <c r="E2" s="4"/>
       <c r="F2" t="s" s="15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n" s="11">
         <v>10.0</v>
@@ -1006,7 +1043,18 @@
       <c r="I2" t="n" s="18">
         <v>65.0</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="K2" t="s" s="15">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="M2" t="n" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="N2" t="n" s="18">
+        <v>85.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="16"/>
@@ -1024,11 +1072,18 @@
       <c r="I3" t="n" s="22">
         <v>125.0</v>
       </c>
+      <c r="K3" s="16"/>
+      <c r="M3" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="N3" t="n" s="22">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="16"/>
       <c r="B4" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n" s="2">
         <v>11.0</v>
@@ -1042,6 +1097,13 @@
       </c>
       <c r="I4" t="n" s="22">
         <v>155.0</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="M4" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="N4" t="n" s="22">
+        <v>175.0</v>
       </c>
     </row>
     <row r="5">
@@ -1060,9 +1122,19 @@
       <c r="I5" t="n" s="22">
         <v>115.0</v>
       </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="5"/>
+      <c r="M5" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="N5" t="n" s="19">
+        <v>115.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4"/>
+      <c r="A6" t="s" s="4">
+        <v>4</v>
+      </c>
       <c r="F6" s="16"/>
       <c r="H6" t="n" s="1">
         <v>5.0</v>
@@ -1070,13 +1142,23 @@
       <c r="I6" t="n" s="22">
         <v>170.0</v>
       </c>
+      <c r="K6" s="16"/>
+      <c r="L6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="M6" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="N6" t="n" s="20">
+        <v>185.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n" s="11">
         <v>3.0</v>
@@ -1084,13 +1166,19 @@
       <c r="D7" t="n" s="18">
         <v>0.0</v>
       </c>
-      <c r="E7" s="4"/>
       <c r="F7" s="16"/>
       <c r="H7" t="n" s="1">
         <v>5.0</v>
       </c>
       <c r="I7" t="n" s="22">
         <v>175.0</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="M7" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="N7" t="n" s="20">
+        <v>185.0</v>
       </c>
     </row>
     <row r="8">
@@ -1110,11 +1198,19 @@
       <c r="I8" t="n" s="19">
         <v>185.0</v>
       </c>
+      <c r="K8" s="16"/>
+      <c r="L8" s="5"/>
+      <c r="M8" t="n" s="7">
+        <v>10.0</v>
+      </c>
+      <c r="N8" t="n" s="23">
+        <v>185.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="17"/>
       <c r="B9" t="s" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n" s="9">
         <v>13.0</v>
@@ -1124,7 +1220,7 @@
       </c>
       <c r="F9" s="16"/>
       <c r="G9" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n" s="2">
         <v>15.0</v>
@@ -1132,9 +1228,21 @@
       <c r="I9" t="n" s="20">
         <v>175.0</v>
       </c>
+      <c r="K9" s="16"/>
+      <c r="L9" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="M9" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="N9" t="n" s="22">
+        <v>130.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="4"/>
+      <c r="A10" t="s" s="4">
+        <v>4</v>
+      </c>
       <c r="F10" s="16"/>
       <c r="H10" t="n" s="2">
         <v>12.0</v>
@@ -1142,13 +1250,20 @@
       <c r="I10" t="n" s="20">
         <v>175.0</v>
       </c>
+      <c r="K10" s="16"/>
+      <c r="M10" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="N10" t="n" s="22">
+        <v>130.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n" s="11">
         <v>9.0</v>
@@ -1156,7 +1271,6 @@
       <c r="D11" t="n" s="18">
         <v>0.0</v>
       </c>
-      <c r="E11" s="4"/>
       <c r="F11" s="16"/>
       <c r="G11" s="5"/>
       <c r="H11" t="n" s="7">
@@ -1165,6 +1279,14 @@
       <c r="I11" t="n" s="23">
         <v>175.0</v>
       </c>
+      <c r="K11" s="16"/>
+      <c r="L11" s="5"/>
+      <c r="M11" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="N11" t="n" s="19">
+        <v>130.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="16"/>
@@ -1177,19 +1299,29 @@
       </c>
       <c r="F12" s="16"/>
       <c r="G12" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n" s="1">
         <v>10.0</v>
       </c>
       <c r="I12" t="n" s="22">
         <v>120.0</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="M12" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="N12" t="n" s="20">
+        <v>30.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="17"/>
       <c r="B13" t="s" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n" s="9">
         <v>6.0</v>
@@ -1204,9 +1336,18 @@
       <c r="I13" t="n" s="22">
         <v>120.0</v>
       </c>
+      <c r="K13" s="16"/>
+      <c r="M13" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="N13" t="n" s="20">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="4"/>
+      <c r="A14" t="s" s="4">
+        <v>4</v>
+      </c>
       <c r="F14" s="16"/>
       <c r="G14" s="5"/>
       <c r="H14" t="n" s="6">
@@ -1215,13 +1356,21 @@
       <c r="I14" t="n" s="19">
         <v>115.0</v>
       </c>
+      <c r="K14" s="17"/>
+      <c r="L14" s="8"/>
+      <c r="M14" t="n" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="N14" t="n" s="21">
+        <v>30.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n" s="11">
         <v>12.0</v>
@@ -1229,16 +1378,18 @@
       <c r="D15" t="n" s="18">
         <v>0.0</v>
       </c>
-      <c r="E15" s="4"/>
       <c r="F15" s="16"/>
       <c r="G15" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n" s="2">
         <v>10.0</v>
       </c>
       <c r="I15" t="n" s="20">
         <v>25.0</v>
+      </c>
+      <c r="K15" t="s" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1257,11 +1408,23 @@
       <c r="I16" t="n" s="20">
         <v>25.0</v>
       </c>
+      <c r="K16" t="s" s="15">
+        <v>23</v>
+      </c>
+      <c r="L16" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="M16" t="n" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="N16" t="n" s="18">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="16"/>
       <c r="B17" t="s" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="n" s="2">
         <v>10.0</v>
@@ -1277,6 +1440,13 @@
       <c r="I17" t="n" s="21">
         <v>25.0</v>
       </c>
+      <c r="K17" s="16"/>
+      <c r="M17" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N17" t="n" s="22">
+        <v>125.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="16"/>
@@ -1286,7 +1456,16 @@
       <c r="D18" t="n" s="20">
         <v>180.0</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="M18" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N18" t="n" s="22">
+        <v>155.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="17"/>
@@ -1298,10 +1477,10 @@
         <v>175.0</v>
       </c>
       <c r="F19" t="s" s="15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H19" t="n" s="11">
         <v>10.0</v>
@@ -1309,10 +1488,19 @@
       <c r="I19" t="n" s="18">
         <v>85.0</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="5"/>
+      <c r="M19" t="n" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="N19" t="n" s="19">
+        <v>200.0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="4"/>
+      <c r="A20" t="s" s="4">
+        <v>4</v>
+      </c>
       <c r="F20" s="16"/>
       <c r="H20" t="n" s="1">
         <v>10.0</v>
@@ -1320,13 +1508,23 @@
       <c r="I20" t="n" s="22">
         <v>125.0</v>
       </c>
+      <c r="K20" s="16"/>
+      <c r="L20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="M20" t="n" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="N20" t="n" s="20">
+        <v>200.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n" s="11">
         <v>10.0</v>
@@ -1334,13 +1532,19 @@
       <c r="D21" t="n" s="18">
         <v>65.0</v>
       </c>
-      <c r="E21" s="4"/>
       <c r="F21" s="16"/>
       <c r="H21" t="n" s="1">
         <v>10.0</v>
       </c>
       <c r="I21" t="n" s="22">
         <v>175.0</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="M21" t="n" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="N21" t="n" s="20">
+        <v>200.0</v>
       </c>
     </row>
     <row r="22">
@@ -1359,6 +1563,14 @@
       <c r="I22" t="n" s="19">
         <v>115.0</v>
       </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="5"/>
+      <c r="M22" t="n" s="7">
+        <v>8.0</v>
+      </c>
+      <c r="N22" t="n" s="23">
+        <v>200.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="16"/>
@@ -1370,13 +1582,23 @@
       </c>
       <c r="F23" s="16"/>
       <c r="G23" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" t="n" s="2">
         <v>10.0</v>
       </c>
       <c r="I23" t="n" s="20">
         <v>185.0</v>
+      </c>
+      <c r="K23" s="16"/>
+      <c r="L23" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="M23" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="N23" t="n" s="22">
+        <v>115.0</v>
       </c>
     </row>
     <row r="24">
@@ -1394,6 +1616,13 @@
       <c r="I24" t="n" s="20">
         <v>185.0</v>
       </c>
+      <c r="K24" s="16"/>
+      <c r="M24" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="N24" t="n" s="22">
+        <v>115.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="16"/>
@@ -1411,6 +1640,14 @@
       <c r="I25" t="n" s="23">
         <v>185.0</v>
       </c>
+      <c r="K25" s="16"/>
+      <c r="L25" s="5"/>
+      <c r="M25" t="n" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="N25" t="n" s="19">
+        <v>115.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="16"/>
@@ -1422,13 +1659,23 @@
       </c>
       <c r="F26" s="16"/>
       <c r="G26" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="n" s="1">
         <v>10.0</v>
       </c>
       <c r="I26" t="n" s="22">
         <v>130.0</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="M26" t="n" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="N26" t="n" s="20">
+        <v>15.0</v>
       </c>
     </row>
     <row r="27">
@@ -1447,11 +1694,18 @@
       <c r="I27" t="n" s="22">
         <v>130.0</v>
       </c>
+      <c r="K27" s="16"/>
+      <c r="M27" t="n" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="N27" t="n" s="20">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="16"/>
       <c r="B28" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" t="n" s="2">
         <v>15.0</v>
@@ -1466,6 +1720,14 @@
       </c>
       <c r="I28" t="n" s="19">
         <v>130.0</v>
+      </c>
+      <c r="K28" s="17"/>
+      <c r="L28" s="8"/>
+      <c r="M28" t="n" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="N28" t="n" s="21">
+        <v>15.0</v>
       </c>
     </row>
     <row r="29">
@@ -1478,13 +1740,16 @@
       </c>
       <c r="F29" s="16"/>
       <c r="G29" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H29" t="n" s="2">
         <v>10.0</v>
       </c>
       <c r="I29" t="n" s="20">
         <v>30.0</v>
+      </c>
+      <c r="K29" t="s" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1503,11 +1768,23 @@
       <c r="I30" t="n" s="20">
         <v>30.0</v>
       </c>
+      <c r="K30" t="s" s="15">
+        <v>24</v>
+      </c>
+      <c r="L30" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="M30" t="n" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="N30" t="n" s="18">
+        <v>50.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="16"/>
       <c r="B31" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" t="n" s="1">
         <v>12.0</v>
@@ -1522,6 +1799,13 @@
       </c>
       <c r="I31" t="n" s="21">
         <v>30.0</v>
+      </c>
+      <c r="K31" s="16"/>
+      <c r="M31" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="N31" t="n" s="22">
+        <v>50.0</v>
       </c>
     </row>
     <row r="32">
@@ -1532,7 +1816,17 @@
       <c r="D32" t="n" s="22">
         <v>125.0</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="K32" s="17"/>
+      <c r="L32" s="8"/>
+      <c r="M32" t="n" s="24">
+        <v>10.0</v>
+      </c>
+      <c r="N32" t="n" s="25">
+        <v>50.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="16"/>
@@ -1544,10 +1838,10 @@
         <v>125.0</v>
       </c>
       <c r="F33" t="s" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G33" t="s" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H33" t="n" s="11">
         <v>5.0</v>
@@ -1555,12 +1849,14 @@
       <c r="I33" t="n" s="18">
         <v>100.0</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="K33" t="s" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="16"/>
       <c r="B34" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" t="n" s="2">
         <v>12.0</v>
@@ -1611,10 +1907,12 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4"/>
+      <c r="A37" t="s" s="4">
+        <v>4</v>
+      </c>
       <c r="F37" s="16"/>
       <c r="G37" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" t="n" s="2">
         <v>9.0</v>
@@ -1645,7 +1943,7 @@
     <row r="40">
       <c r="F40" s="16"/>
       <c r="G40" t="s" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="n" s="1">
         <v>10.0</v>
@@ -1676,7 +1974,7 @@
     <row r="43">
       <c r="F43" s="16"/>
       <c r="G43" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H43" t="n" s="2">
         <v>8.0</v>
@@ -1705,14 +2003,16 @@
       </c>
     </row>
     <row r="46">
-      <c r="F46" s="4"/>
+      <c r="F46" t="s" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="47">
       <c r="F47" t="s" s="15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H47" t="n" s="11">
         <v>10.0</v>
@@ -1720,7 +2020,6 @@
       <c r="I47" t="n" s="18">
         <v>50.0</v>
       </c>
-      <c r="J47" s="4"/>
     </row>
     <row r="48">
       <c r="F48" s="16"/>
@@ -1742,60 +2041,250 @@
       </c>
     </row>
     <row r="50">
-      <c r="F50" s="4"/>
+      <c r="F50" t="s" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="H51" t="n" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="I51" t="n" s="18">
+        <v>65.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" s="16"/>
+      <c r="H52" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I52" t="n" s="22">
+        <v>125.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="F53" s="16"/>
+      <c r="H53" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I53" t="n" s="22">
+        <v>155.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="F54" s="16"/>
+      <c r="H54" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I54" t="n" s="22">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="F55" s="16"/>
+      <c r="H55" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I55" t="n" s="22">
+        <v>170.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="F56" s="16"/>
+      <c r="H56" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I56" t="n" s="22">
+        <v>175.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="F57" s="16"/>
+      <c r="G57" s="5"/>
+      <c r="H57" t="n" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I57" t="n" s="19">
+        <v>185.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="F58" s="16"/>
+      <c r="G58" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H58" t="n" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="I58" t="n" s="20">
+        <v>175.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="F59" s="16"/>
+      <c r="H59" t="n" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="I59" t="n" s="20">
+        <v>175.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="F60" s="16"/>
+      <c r="G60" s="5"/>
+      <c r="H60" t="n" s="7">
+        <v>15.0</v>
+      </c>
+      <c r="I60" t="n" s="23">
+        <v>175.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="F61" s="16"/>
+      <c r="G61" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="H61" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I61" t="n" s="22">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="F62" s="16"/>
+      <c r="H62" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I62" t="n" s="22">
+        <v>120.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="F63" s="16"/>
+      <c r="G63" s="5"/>
+      <c r="H63" t="n" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="I63" t="n" s="19">
+        <v>115.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="F64" s="16"/>
+      <c r="G64" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="H64" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I64" t="n" s="20">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="F65" s="16"/>
+      <c r="H65" t="n" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I65" t="n" s="20">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="4">
+        <v>4</v>
+      </c>
+      <c r="F66" s="17"/>
+      <c r="G66" s="8"/>
+      <c r="H66" t="n" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="I66" t="n" s="21">
+        <v>25.0</v>
+      </c>
+      <c r="K66" t="s" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="F67" t="s" s="4">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="65">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E2:E6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E7:E10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E11:E14"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E15:E20"/>
     <mergeCell ref="B21:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A21:A36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E21:E37"/>
     <mergeCell ref="G2:G8"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="F2:F17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J2:J18"/>
     <mergeCell ref="G19:G22"/>
     <mergeCell ref="G23:G25"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G29:G31"/>
     <mergeCell ref="F19:F31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="J19:J32"/>
     <mergeCell ref="G33:G36"/>
     <mergeCell ref="G37:G39"/>
     <mergeCell ref="G40:G42"/>
     <mergeCell ref="G43:G45"/>
     <mergeCell ref="F33:F45"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="J33:J46"/>
     <mergeCell ref="G47:G49"/>
     <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G51:G57"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="F51:F66"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="K2:K14"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L20:L22"/>
+    <mergeCell ref="L23:L25"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="K16:K28"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A37:D67"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F46:I46"/>
     <mergeCell ref="F50:I50"/>
-    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K33:N67"/>
+    <mergeCell ref="E1:E67"/>
+    <mergeCell ref="J1:J67"/>
+    <mergeCell ref="O1:O67"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
